--- a/MatLab/Integration Project/Sequences/FullTestOval.xlsx
+++ b/MatLab/Integration Project/Sequences/FullTestOval.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deang\Documents\Summer Research 2018\Integration Project\MatLab\Integration Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deang\Documents\Summer Research 2018\Integration Project\MatLab\Integration Project\Sequences\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13248" yWindow="0" windowWidth="12708" windowHeight="6834"/>
+    <workbookView xWindow="15120" yWindow="0" windowWidth="12708" windowHeight="6834"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -362,7 +362,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
